--- a/grupos/6ASM - Estadisticos 20202.xlsx
+++ b/grupos/6ASM - Estadisticos 20202.xlsx
@@ -2389,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R23">
         <v>6</v>
@@ -2774,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R28">
         <v>6</v>

--- a/grupos/6ASM - Estadisticos 20202.xlsx
+++ b/grupos/6ASM - Estadisticos 20202.xlsx
@@ -2395,7 +2395,7 @@
         <v>6</v>
       </c>
       <c r="S23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T23">
         <v>6</v>
@@ -2780,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="S28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T28">
         <v>7</v>
@@ -2798,7 +2798,7 @@
         <v>6</v>
       </c>
       <c r="Y28">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:25">

--- a/grupos/6ASM - Estadisticos 20202.xlsx
+++ b/grupos/6ASM - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
   <si>
     <t>Materia</t>
   </si>
@@ -164,16 +164,16 @@
     <t>Velasco Sánchez David</t>
   </si>
   <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
+    <t>Medina Tolentino Elio</t>
+  </si>
+  <si>
     <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Elio</t>
   </si>
   <si>
     <t>NC</t>
@@ -2943,19 +2943,19 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>76.92</v>
+        <v>92.31</v>
       </c>
       <c r="G2">
-        <v>23.08</v>
+        <v>7.69</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -2975,19 +2975,19 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>76.92</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="G3">
-        <v>23.08</v>
+        <v>3.85</v>
       </c>
       <c r="H3">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -3007,19 +3007,19 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>92.31</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>7.69</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3062,10 +3062,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>26</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3644,7 +3644,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3674,67 +3674,67 @@
         <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920387</v>
+        <v>18330051920417</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920387</v>
+        <v>18330051920417</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920399</v>
+        <v>17330051920191</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -3743,190 +3743,6 @@
         <v>47</v>
       </c>
       <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920399</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920411</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920411</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920394</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920397</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920404</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>17330051920191</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920418</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12">
         <v>5</v>
       </c>
     </row>
